--- a/docs/MVB/铁八（HXD1）/DK2(HXD1)/铁八-KD2(HXD1).xlsx
+++ b/docs/MVB/铁八（HXD1）/DK2(HXD1)/铁八-KD2(HXD1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
     <definedName name="OLE_LINK4" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="96">
   <si>
     <t>信号名称</t>
   </si>
@@ -326,19 +326,19 @@
   <si>
     <t>制动系统诊断信息</t>
   </si>
+  <si>
+    <t>(1LSB=0.0625kPa)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,151 +375,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,194 +400,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -763,251 +439,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1023,14 +457,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1040,57 +474,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1388,21 +775,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
@@ -1418,7 +804,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.25" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1597,7 +983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1741,7 +1127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1882,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1918,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1990,7 +1376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -2026,7 +1412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:12">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2047,7 +1433,7 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I18" s="2" t="b">
         <v>0</v>
@@ -2059,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2083,7 +1469,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I19" s="2" t="b">
         <v>0</v>
@@ -2098,7 +1484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -2119,7 +1505,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I20" s="2" t="b">
         <v>0</v>
@@ -2134,7 +1520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -2155,7 +1541,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I21" s="2" t="b">
         <v>0</v>
@@ -2170,7 +1556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +1577,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I22" s="2" t="b">
         <v>0</v>
@@ -2206,7 +1592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -2242,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -2278,7 +1664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -2314,7 +1700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -2350,7 +1736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -2386,7 +1772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -2422,7 +1808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -2458,7 +1844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -2494,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2530,7 +1916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2566,7 +1952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -2602,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2638,7 +2024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
@@ -2674,7 +2060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
@@ -2710,7 +2096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>66</v>
       </c>
@@ -2746,7 +2132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>67</v>
       </c>
@@ -2782,7 +2168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>68</v>
       </c>
@@ -2818,7 +2204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -2854,7 +2240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="1:12">
+    <row r="42" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>71</v>
       </c>
@@ -2926,7 +2312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:12">
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
@@ -2962,7 +2348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:12">
+    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>75</v>
       </c>
@@ -2998,7 +2384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -3034,7 +2420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>78</v>
       </c>
@@ -3070,7 +2456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
@@ -3106,7 +2492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
@@ -3142,7 +2528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>82</v>
       </c>
@@ -3178,7 +2564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>84</v>
       </c>
@@ -3214,7 +2600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>86</v>
       </c>
@@ -3250,7 +2636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
@@ -3286,7 +2672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>88</v>
       </c>
@@ -3322,7 +2708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -3358,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>90</v>
       </c>
@@ -3394,7 +2780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>91</v>
       </c>
@@ -3430,7 +2816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -3466,7 +2852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3502,7 +2888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>87</v>
       </c>
@@ -3538,7 +2924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
@@ -3574,7 +2960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>36</v>
       </c>
@@ -3610,7 +2996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
@@ -3646,7 +3032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
@@ -3682,7 +3068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -3718,7 +3104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>92</v>
       </c>
@@ -3790,7 +3176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>36</v>
       </c>
@@ -3862,7 +3248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>36</v>
       </c>
@@ -3898,7 +3284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>36</v>
       </c>
@@ -3934,7 +3320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>36</v>
       </c>
@@ -3970,7 +3356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>36</v>
       </c>
@@ -4006,7 +3392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>36</v>
       </c>
@@ -4042,7 +3428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>36</v>
       </c>
@@ -4078,7 +3464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>93</v>
       </c>
@@ -4114,7 +3500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>94</v>
       </c>
@@ -4150,7 +3536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>43</v>
       </c>
@@ -4187,13 +3573,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15 I17:I22 I24:I29 I31:I36 I38:I43 I45:I50 I52:I57 I59:I64 I66:I71 I73:I77 K18:K77">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>